--- a/data/trans_camb/P08_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.340529456585423</v>
+        <v>-5.494634535264735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.010755361496746</v>
+        <v>-3.575571609700182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.609641450191597</v>
+        <v>-7.052096417236875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.01266514859348086</v>
+        <v>0.9995603002357287</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9912798386165399</v>
+        <v>0.7071719158475603</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.287403343370701</v>
+        <v>-6.743598346386219</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8277256893924625</v>
+        <v>-0.8194643002417792</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3087849053418907</v>
+        <v>0.7007315671851324</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.091759060838344</v>
+        <v>-5.099460908320958</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.622549715245205</v>
+        <v>6.50674409891143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.179768416202187</v>
+        <v>8.626428973629858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.801948622522002</v>
+        <v>4.387136712065073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.98458020187585</v>
+        <v>15.64362201179568</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.88890060036239</v>
+        <v>15.57105535629834</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.41554976223283</v>
+        <v>5.012986317713837</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.685105881262356</v>
+        <v>8.832684385771842</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.976074032376832</v>
+        <v>10.30999849165492</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.943081807498911</v>
+        <v>3.164098829985844</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3329330558871942</v>
+        <v>-0.3120589857830483</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2108506079448224</v>
+        <v>-0.2075081330298773</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3925637007789062</v>
+        <v>-0.3742140830617289</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0006761721842343488</v>
+        <v>0.04110756351254316</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04257492808231365</v>
+        <v>0.02862097816316914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2793706991619974</v>
+        <v>-0.2907942090280146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05189152380096146</v>
+        <v>-0.04327055500750851</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01328319829177351</v>
+        <v>0.02997106014653934</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2534322168435342</v>
+        <v>-0.2598617769094553</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5688990137480261</v>
+        <v>0.5438809047349126</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7441395993035187</v>
+        <v>0.7009509213138658</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3322744801076431</v>
+        <v>0.3723525232474966</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.007516556144857</v>
+        <v>1.067331202164327</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9376316504694645</v>
+        <v>1.023147711932982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3787947969858619</v>
+        <v>0.3524348489734027</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5806168117387978</v>
+        <v>0.5826212692254482</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6609464748305222</v>
+        <v>0.6801983101183416</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1957657524429799</v>
+        <v>0.2166584303350221</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.821434448529075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.944111633834209</v>
+        <v>4.944111633834214</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.062290169442767</v>
@@ -878,7 +878,7 @@
         <v>-2.385374641327617</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.447749568768798</v>
+        <v>2.4477495687688</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.318102621775335</v>
+        <v>-3.450886767738087</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.538727119756242</v>
+        <v>-5.982788664700255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06716010646557803</v>
+        <v>0.03430337659328785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.85864125387673</v>
+        <v>-3.799067854213423</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.229831101091319</v>
+        <v>-8.07193527202311</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.277035712731978</v>
+        <v>-4.818926313576865</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.56626505841369</v>
+        <v>-2.190039787064381</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.01311715895954</v>
+        <v>-5.782734057768207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.100912852714778</v>
+        <v>-1.071055292169564</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.057415285585193</v>
+        <v>6.153253708582922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.505404937844045</v>
+        <v>2.527957797917047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.696610161031275</v>
+        <v>9.461844170469487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.2791339341593</v>
+        <v>6.513486971430013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.358400399664324</v>
+        <v>2.005274867267334</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.916303647370071</v>
+        <v>4.507540857822953</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.615838195337919</v>
+        <v>4.660276877343252</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.910849667318085</v>
+        <v>0.9281431994862588</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.136312049060829</v>
+        <v>5.944451861750227</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1335412198428403</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3624850178685193</v>
+        <v>0.3624850178685197</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0432561864477135</v>
@@ -983,7 +983,7 @@
         <v>-0.1245084040457525</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1277641620862792</v>
+        <v>0.1277641620862794</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2119514649960536</v>
+        <v>-0.2402767755925677</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4052667496615887</v>
+        <v>-0.3843880465536553</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.001647172963775342</v>
+        <v>-0.000472981436801675</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1438716377370108</v>
+        <v>-0.1419833375795594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3004744192571595</v>
+        <v>-0.3039447992905162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1918009444494186</v>
+        <v>-0.1776965323058632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1190970764650829</v>
+        <v>-0.1079415199910394</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2885769398437733</v>
+        <v>-0.272470740563813</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05259742483578395</v>
+        <v>-0.05412519702710865</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5184492951540211</v>
+        <v>0.5272519044792653</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2254151235146695</v>
+        <v>0.2248987564467798</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8535028195761091</v>
+        <v>0.8220823870910298</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3313999060580332</v>
+        <v>0.2951087837253245</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1161402374734806</v>
+        <v>0.0870705530063475</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2298510469465966</v>
+        <v>0.2020936741050316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2688537752652368</v>
+        <v>0.2703420350961767</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05589340902132665</v>
+        <v>0.0539774329662225</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3567350603236992</v>
+        <v>0.3431891551049021</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-6.557897669103443</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6.171667668038094</v>
+        <v>-6.171667668038089</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.04031497099219</v>
@@ -1092,7 +1092,7 @@
         <v>-2.614718216510459</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.828340147503024</v>
+        <v>-1.828340147503027</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.104425055964418</v>
+        <v>-0.07885174526643371</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.527905595393952</v>
+        <v>-3.286876733664319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.854823658761843</v>
+        <v>-1.925984615014007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.016083081556109</v>
+        <v>-8.944282483063777</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.16610144533332</v>
+        <v>-13.32476280745144</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.13064238749315</v>
+        <v>-11.47873140413778</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.11682718514591</v>
+        <v>-3.55017663270154</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.876456518547138</v>
+        <v>-6.530512062415829</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.484303464412513</v>
+        <v>-5.792924869789895</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.59106090288784</v>
+        <v>10.45059987376914</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.185311220548577</v>
+        <v>6.263165019466875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.168897567509655</v>
+        <v>7.284799306155525</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.354016456348489</v>
+        <v>4.902373298233911</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.2060836678155961</v>
+        <v>0.06336852751967573</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.5065423253690599</v>
+        <v>-0.6276809874471605</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.452505246877981</v>
+        <v>4.984039590598798</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.370039196271634</v>
+        <v>1.824184633885238</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.808377616932462</v>
+        <v>1.880382068316593</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2572653418483172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2421135968425527</v>
+        <v>-0.2421135968425524</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05576514917796898</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1401596203724664</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.09800653063402025</v>
+        <v>-0.0980065306340204</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09035313733441391</v>
+        <v>-0.01696407933442752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.281569217363825</v>
+        <v>-0.2470802542598399</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1964247132218743</v>
+        <v>-0.1382043782505738</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2834861329938023</v>
+        <v>-0.309835194224267</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4563655295118723</v>
+        <v>-0.4479461787755201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4142039339740689</v>
+        <v>-0.3932070647746225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1521101169829489</v>
+        <v>-0.1721126554598572</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3409858341073581</v>
+        <v>-0.3236472405238157</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.265626330072935</v>
+        <v>-0.2748166399469997</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.161213457332386</v>
+        <v>1.198001378375265</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7048033751820967</v>
+        <v>0.7314970832341013</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8012505250525042</v>
+        <v>0.8856740571147054</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2045932411289875</v>
+        <v>0.228381158033916</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.00216157210250507</v>
+        <v>0.01111077334651188</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.02222730645613004</v>
+        <v>-0.01185907580913447</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3421406651760754</v>
+        <v>0.3097429937416676</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07474870882716055</v>
+        <v>0.1182539520866226</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1052185603074404</v>
+        <v>0.1141016155566316</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.259789550044273</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.0535451920561</v>
+        <v>-2.053545192056103</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.506653217772079</v>
@@ -1306,7 +1306,7 @@
         <v>2.862850863248856</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.241722246893531</v>
+        <v>1.241722246893529</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.09740059923854</v>
+        <v>-2.147604346156129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.119304924306024</v>
+        <v>-2.653105008663229</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5478702944523535</v>
+        <v>-0.9910355354488233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.47360046722108</v>
+        <v>1.452292623656223</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.733479839971842</v>
+        <v>-3.47973726399644</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.414062439283911</v>
+        <v>-7.433206680956128</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.124621586878355</v>
+        <v>1.29378728331557</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9088824372718163</v>
+        <v>-1.16920638573818</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.507178547950547</v>
+        <v>-2.665402158800739</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.537950649642481</v>
+        <v>8.386428903296625</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.811477731561671</v>
+        <v>7.382837270704061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.851172657658976</v>
+        <v>10.60208673348218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.28836829834038</v>
+        <v>15.007564096978</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.725362460928277</v>
+        <v>9.64214276280922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.947205686002586</v>
+        <v>3.100406716352097</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.923980938004947</v>
+        <v>9.636929682802627</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.958774524821389</v>
+        <v>7.30143825208865</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.087671434247626</v>
+        <v>5.11621085963695</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1401345345632166</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.08827950248794574</v>
+        <v>-0.08827950248794586</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3041207562831065</v>
@@ -1411,7 +1411,7 @@
         <v>0.1581091699849662</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.06857768119482285</v>
+        <v>0.0685776811948227</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1335013813099407</v>
+        <v>-0.1441978233318444</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2006957330035833</v>
+        <v>-0.1835523185450216</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03845778482244726</v>
+        <v>-0.07661213040184565</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05484750435640663</v>
+        <v>0.04689448897130674</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1205159412134079</v>
+        <v>-0.1344140466837825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2797806960194453</v>
+        <v>-0.2789478685687979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0562028685706976</v>
+        <v>0.06149836260623952</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04723987096187167</v>
+        <v>-0.05560152131178124</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1288965167452993</v>
+        <v>-0.1348806522173432</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8415114784125611</v>
+        <v>0.8277377791599189</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7599832139206358</v>
+        <v>0.7322276282414627</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9592237671643932</v>
+        <v>1.061682240930852</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7100325337934373</v>
+        <v>0.7363063529457766</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4786523899069256</v>
+        <v>0.4562220447996688</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1393569398474346</v>
+        <v>0.1539237377030374</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6003206073903499</v>
+        <v>0.5991792786854747</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4370878961880951</v>
+        <v>0.4252054483000332</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3179842528075942</v>
+        <v>0.3143999193973573</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.399446489129361</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.176791216162969</v>
+        <v>2.176791216162967</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.006858432305</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.875054486466727</v>
+        <v>1.76318230363969</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.429416984181409</v>
+        <v>-2.436061417952048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.53409818410439</v>
+        <v>-3.07373393138374</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.260873089406049</v>
+        <v>2.355913870756683</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.14691416698545</v>
+        <v>-4.928428691289494</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4450106184274421</v>
+        <v>-0.6728452424528998</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.63655146855158</v>
+        <v>5.004085765936335</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.008272911393166</v>
+        <v>-1.220152484903095</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.488097461088046e-05</v>
+        <v>0.6566076198419984</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.14355409834665</v>
+        <v>14.82330012321891</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.21463830810969</v>
+        <v>9.210170109848836</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.849598593658516</v>
+        <v>7.080352441000779</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.7519524988462</v>
+        <v>19.81337766085901</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.5352844163329</v>
+        <v>10.58155657446386</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.37876704120134</v>
+        <v>12.85653126822801</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.43620265615863</v>
+        <v>15.58227149972242</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.28683336706502</v>
+        <v>9.248336927798261</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.819822231315086</v>
+        <v>8.862423701318258</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3670438435551533</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2350317374173996</v>
+        <v>0.2350317374173993</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6433037044655291</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1192426662239649</v>
+        <v>0.139522513626982</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2206906062216728</v>
+        <v>-0.2191239476427968</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.27039976530518</v>
+        <v>-0.2515579361702516</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1418290788909391</v>
+        <v>0.09241994415375177</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1836732516847004</v>
+        <v>-0.2138564636166289</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02079438447682315</v>
+        <v>-0.03381497108787763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2677151101284072</v>
+        <v>0.2974238744268005</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1307521515688718</v>
+        <v>-0.08684547044067956</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.008229905927226944</v>
+        <v>0.0362229568097535</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.244112704971947</v>
+        <v>2.272417722514075</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.349640169247098</v>
+        <v>1.394752689927026</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.087146879493479</v>
+        <v>1.084860657067485</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.482736849092581</v>
+        <v>1.362878982950231</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8010121578919064</v>
+        <v>0.7016108407987018</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.044811721828872</v>
+        <v>0.8935250637099625</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.32872571963579</v>
+        <v>1.308355940709872</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6678031753722942</v>
+        <v>0.8061335136282438</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7819460564219332</v>
+        <v>0.7704309645905295</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.486866833198216</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.389575207487209</v>
+        <v>-6.389575207487219</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.459582405989073</v>
@@ -1734,7 +1734,7 @@
         <v>4.782973368701851</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.779068637353107</v>
+        <v>-4.779068637353104</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.412112651491534</v>
+        <v>-1.993774657300041</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.831908991672464</v>
+        <v>-1.196477291687338</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.260410675341586</v>
+        <v>-8.821169798260152</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.369814904023814</v>
+        <v>-5.179275485757659</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.126499560916138</v>
+        <v>-3.972790694360163</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-12.21878930653915</v>
+        <v>-12.7176934290633</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.428008008325264</v>
+        <v>-1.797188620772012</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2180847437237906</v>
+        <v>-0.4549692756424205</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.951562781426366</v>
+        <v>-9.265777487519102</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.89913375100639</v>
+        <v>10.97435338892635</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.83222774680227</v>
+        <v>11.71988756042056</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.91269441525239</v>
+        <v>2.277174810799375</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.00908597504689</v>
+        <v>9.945703553437522</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.56629926719883</v>
+        <v>11.97871617130326</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.1424611741250333</v>
+        <v>-0.1922612949352328</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.222601665191801</v>
+        <v>7.977352494344585</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.64066018762587</v>
+        <v>9.515416852635148</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.8368687791989406</v>
+        <v>-0.7718388584677729</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1742418043300011</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.248131079981537</v>
+        <v>-0.2481310799815374</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1675185666250295</v>
@@ -1839,7 +1839,7 @@
         <v>0.2315992940487724</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2314102206515135</v>
+        <v>-0.2314102206515133</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1290168382200442</v>
+        <v>-0.111471979008136</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.104523231885666</v>
+        <v>-0.08792726865591351</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4408419376022822</v>
+        <v>-0.4488030907045353</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1846154318590088</v>
+        <v>-0.1833979203121023</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1134671024825041</v>
+        <v>-0.1339038146847083</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4109532500776759</v>
+        <v>-0.4247576659358157</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.06077794550078814</v>
+        <v>-0.07182657745111301</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.008890852224778662</v>
+        <v>-0.01900118543198807</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3887459411913341</v>
+        <v>-0.3962144502953191</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8527052074556616</v>
+        <v>0.9328303839213695</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9514155092806196</v>
+        <v>0.9360883341569829</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1664360576302864</v>
+        <v>0.1925278149690665</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4551696746610057</v>
+        <v>0.4486385487771681</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5541942824915221</v>
+        <v>0.5461284930270346</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.007411667189640306</v>
+        <v>0.0004368795087452984</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4730863076626033</v>
+        <v>0.4328546762923235</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6076477167013108</v>
+        <v>0.5128164278968242</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.04309384347792564</v>
+        <v>-0.04329405461070776</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.612446886047397</v>
+        <v>-6.537218798450209</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.17524563935971</v>
+        <v>-3.285114868482766</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.926773792259429</v>
+        <v>-2.687484745139099</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.698133535213223</v>
+        <v>-2.224561293091819</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.795845109761189</v>
+        <v>-4.439820110450676</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.997806406939113</v>
+        <v>-1.952396733763103</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.206874631318659</v>
+        <v>-3.370710403480338</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.400993976361384</v>
+        <v>-2.866414862926814</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.178813074977841</v>
+        <v>-1.310331837551569</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.151301617707129</v>
+        <v>1.292291358131677</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.882099394804637</v>
+        <v>5.205302162447067</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.082138270111034</v>
+        <v>5.366723559946419</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.215782759496276</v>
+        <v>6.545139616819397</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.692528360676515</v>
+        <v>4.328559362947645</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.379140150052979</v>
+        <v>6.357694316437286</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.175012059405471</v>
+        <v>3.009854888889554</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.953955963758351</v>
+        <v>3.417407158399092</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.817359537646017</v>
+        <v>4.715679655310245</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3723369027150378</v>
+        <v>-0.3732369872651061</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1878261635801681</v>
+        <v>-0.1919753059878144</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1679310283644805</v>
+        <v>-0.1577510675865162</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1076769239415819</v>
+        <v>-0.0916244571576585</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1929216837222777</v>
+        <v>-0.1754269957275351</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.07824455062211456</v>
+        <v>-0.07695062645413923</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1521633988242514</v>
+        <v>-0.1616265872019551</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1137418440210812</v>
+        <v>-0.1358732411028502</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.05535370086480156</v>
+        <v>-0.06220455285821597</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1042467006198429</v>
+        <v>0.09926047096210615</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3652123613029745</v>
+        <v>0.3998723210027109</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3886402127421413</v>
+        <v>0.4054041852246879</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3443398246467115</v>
+        <v>0.319272836356555</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2234392714486881</v>
+        <v>0.2058370500021997</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3122569202965602</v>
+        <v>0.3145512171555951</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1850487232329212</v>
+        <v>0.1658747657124544</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2212086256687953</v>
+        <v>0.1898945977384596</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2693811376348161</v>
+        <v>0.2662971126557813</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-3.834616601992807</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.1207228744810773</v>
+        <v>-0.1207228744810745</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.08385382468138192</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.202730769802943</v>
+        <v>-2.029596489476466</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.77209718613312</v>
+        <v>-5.754719995084782</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.564714475413662</v>
+        <v>-5.482717994804126</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.165150535449146</v>
+        <v>-5.497375811522173</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.896569468259471</v>
+        <v>-7.880120578960575</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.362477340249162</v>
+        <v>-3.964115889541706</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.977487027129833</v>
+        <v>-2.729449819075604</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.797185713852106</v>
+        <v>-6.08392388337396</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.812312712021255</v>
+        <v>-4.021719141095863</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.180949498536424</v>
+        <v>5.374120895674614</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9906116372337346</v>
+        <v>0.8809123727295807</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.092175250870097</v>
+        <v>1.186222838056417</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.958561264201706</v>
+        <v>3.081702337641071</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.3402579585716346</v>
+        <v>0.3048192864967074</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.557402057820393</v>
+        <v>3.784914033709599</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.971037376460135</v>
+        <v>3.216958410405907</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.3235294528538128</v>
+        <v>-0.2650490885811499</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.594676097160601</v>
+        <v>1.441179769122306</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.1640130443603797</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.005163521734425179</v>
+        <v>-0.00516352173442506</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.004389646665609052</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1335042764327451</v>
+        <v>-0.1311614721654656</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3481049765937218</v>
+        <v>-0.3622271459818487</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3348125863303359</v>
+        <v>-0.3310016777286076</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2065405759964596</v>
+        <v>-0.2168790333722051</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3100329626656156</v>
+        <v>-0.3186745195215707</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1671826053841853</v>
+        <v>-0.1548198317210232</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1460540523121874</v>
+        <v>-0.135062750660553</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2846439763703305</v>
+        <v>-0.2882581515122762</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1830804044404619</v>
+        <v>-0.1975659622049165</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4052814736035638</v>
+        <v>0.4177787494918346</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.08975381944927696</v>
+        <v>0.06843969354258191</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.09020162806778267</v>
+        <v>0.09886355724968104</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1437083750411315</v>
+        <v>0.1463129874702905</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01409777078984674</v>
+        <v>0.01308673446426463</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1750482615526832</v>
+        <v>0.184450795770939</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1671295066560124</v>
+        <v>0.1839467599160899</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.01754697464586579</v>
+        <v>-0.0110148513131357</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.09104467270953813</v>
+        <v>0.08166624909569663</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-0.4334928327501819</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-0.4992937171806544</v>
+        <v>-0.4992937171806572</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.092315094180255</v>
@@ -2376,7 +2376,7 @@
         <v>0.08510254035779263</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.3139551999423396</v>
+        <v>0.3139551999423423</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.1581050696815269</v>
+        <v>-0.1423471663206326</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.8994802976415732</v>
+        <v>-1.163993442820209</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5695309593905419</v>
+        <v>-0.6630481216488977</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.4836446353306176</v>
+        <v>0.5082150063025971</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.447349073006445</v>
+        <v>-2.594965634245361</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.367119024233247</v>
+        <v>-2.335935437275999</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.6657587892565595</v>
+        <v>0.6928073999880277</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.33240837426168</v>
+        <v>-1.287292278577941</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.9770202270397296</v>
+        <v>-0.8380382991878096</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.444955357956872</v>
+        <v>3.399180114791739</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.384273389599728</v>
+        <v>2.195306476988112</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.808053917322482</v>
+        <v>2.899688313651396</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.65006378544132</v>
+        <v>4.53464513612809</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.539066978414914</v>
+        <v>1.59746542058828</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.232200367506618</v>
+        <v>1.393310389844325</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.472455449146736</v>
+        <v>3.408399230572636</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.413853254238541</v>
+        <v>1.334863993945369</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.493992193123393</v>
+        <v>1.481215753715007</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.01864641437377282</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.02147679694196261</v>
+        <v>-0.02147679694196273</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1121326816569205</v>
@@ -2481,7 +2481,7 @@
         <v>0.00456086948504013</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.0168256868134204</v>
+        <v>0.01682568681342055</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.008761732311481108</v>
+        <v>-0.01044639556526036</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.06236374526308006</v>
+        <v>-0.08078001923838951</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0390219283301245</v>
+        <v>-0.04479478059961021</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.02023115169467904</v>
+        <v>0.02106464300267355</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1016514051609937</v>
+        <v>-0.1042260655682608</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.09692460946326818</v>
+        <v>-0.09633001263006565</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03435867608649257</v>
+        <v>0.03572134683023525</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.07047869518385257</v>
+        <v>-0.06596354096187858</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.04953530747030776</v>
+        <v>-0.04406949791432192</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2680769783113809</v>
+        <v>0.2581698237900249</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1809990681664386</v>
+        <v>0.1638719060583906</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2122892482515115</v>
+        <v>0.2235983409620098</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2115012429422967</v>
+        <v>0.2045280348781225</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.06876660582684048</v>
+        <v>0.07388900245704812</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.05391278193272558</v>
+        <v>0.06571734043068578</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1952626915159646</v>
+        <v>0.1903939491169195</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.07914669862767552</v>
+        <v>0.07443381852218976</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.08328715886519382</v>
+        <v>0.0822826334158348</v>
       </c>
     </row>
     <row r="58">
